--- a/data_e2setup.xlsx
+++ b/data_e2setup.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN MANH DUNG\Downloads\TOOL to GEN ALL\Grok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE728CB-E53F-45A5-80C9-78687A366ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0FAB72-5585-47A6-A4CB-484F27CF07F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3645" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Primitives" sheetId="1" r:id="rId1"/>
+    <sheet name="Messages" sheetId="2" r:id="rId2"/>
+    <sheet name="Types" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+  <si>
+    <t>Message_Name</t>
+  </si>
+  <si>
+    <t>IE_ID_Constant</t>
+  </si>
+  <si>
+    <t>IE_Type</t>
+  </si>
+  <si>
+    <t>Field_Name</t>
+  </si>
+  <si>
+    <t>E2SetupRequest</t>
+  </si>
+  <si>
+    <t>ID_id_TransactionID</t>
+  </si>
+  <si>
+    <t>TransactionID</t>
+  </si>
+  <si>
+    <t>transactionID</t>
+  </si>
+  <si>
+    <t>ID_id_GlobalE2node_ID</t>
+  </si>
+  <si>
+    <t>GlobalE2node_ID</t>
+  </si>
+  <si>
+    <t>globalE2node_ID</t>
+  </si>
+  <si>
+    <t>ID_id_RANfunctionsAdded</t>
+  </si>
+  <si>
+    <t>RANfunctions_List</t>
+  </si>
+  <si>
+    <t>rANfunctionsAdded</t>
+  </si>
+  <si>
+    <t>ID_id_E2nodeComponentConfigAddition</t>
+  </si>
+  <si>
+    <t>E2nodeComponentConfigAddition_List</t>
+  </si>
+  <si>
+    <t>e2nodeComponentConfigAddition</t>
+  </si>
   <si>
     <t>IE_Name</t>
   </si>
@@ -42,12 +95,24 @@
     <t>Enum_Items</t>
   </si>
   <si>
-    <t>TransactionID</t>
+    <t>PLMN_Identity</t>
+  </si>
+  <si>
+    <t>OCTET STRING (SIZE(3))</t>
+  </si>
+  <si>
+    <t>RANfunctionDefinition</t>
+  </si>
+  <si>
+    <t>OCTET STRING</t>
   </si>
   <si>
     <t>INTEGER (0..255, ...)</t>
   </si>
   <si>
+    <t>Criticality</t>
+  </si>
+  <si>
     <t>ProcedureCode</t>
   </si>
   <si>
@@ -60,9 +125,6 @@
     <t>INTEGER (0..65535)</t>
   </si>
   <si>
-    <t>Criticality</t>
-  </si>
-  <si>
     <t>ENUMERATED {reject,ignore,notify}</t>
   </si>
   <si>
@@ -85,6 +147,72 @@
   </si>
   <si>
     <t>[(0, "control-processing-overload", "control-processing-overload"),(1, "hardware-failure", "hardware-failure"),(2, "om-intervention", "om-intervention"),(3, "unspecified", "unspecified")]</t>
+  </si>
+  <si>
+    <t>RANfunctionOID</t>
+  </si>
+  <si>
+    <t>PrintableString (SIZE(1..1000, ...))</t>
+  </si>
+  <si>
+    <t>Type_Name</t>
+  </si>
+  <si>
+    <t>Parent_Type</t>
+  </si>
+  <si>
+    <t>Tag/ID</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Extensible</t>
+  </si>
+  <si>
+    <t>E2AP_PDU</t>
+  </si>
+  <si>
+    <t>CHOICE</t>
+  </si>
+  <si>
+    <t>initiatingMessage</t>
+  </si>
+  <si>
+    <t>InitiatingMessage</t>
+  </si>
+  <si>
+    <t>successfulOutcome</t>
+  </si>
+  <si>
+    <t>SuccessfulOutcome</t>
+  </si>
+  <si>
+    <t>unsuccessfulOutcome</t>
+  </si>
+  <si>
+    <t>UnsuccessfulOutcome</t>
+  </si>
+  <si>
+    <t>SEQUENCE</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>reject</t>
+  </si>
+  <si>
+    <t>gNB</t>
+  </si>
+  <si>
+    <t>GlobalGNB_ID</t>
+  </si>
+  <si>
+    <t>ng_eNB</t>
+  </si>
+  <si>
+    <t>GlobalNGeNB_ID</t>
   </si>
 </sst>
 </file>
@@ -427,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -444,27 +572,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -474,12 +602,12 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -489,12 +617,12 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="45">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -504,42 +632,413 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="89.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="63.75">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BEDAAF-3274-457E-A99E-936F0BE15E0B}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C8064D-1F5D-4C4A-8792-F20A50219AAE}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="45">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="45">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="30">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="45">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="45">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_e2setup.xlsx
+++ b/data_e2setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN MANH DUNG\Downloads\TOOL to GEN ALL\Grok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A5F4FC-6335-4AA4-A559-C138129BF376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2BC7DD-F063-4362-9F42-C81106C9A269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="18060" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primitives" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
   <si>
     <t>Message_Name</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>INTEGER (0..68719476735)</t>
+  </si>
+  <si>
+    <t>GNB-CU-UP-ID</t>
+  </si>
+  <si>
+    <t>NGENB-DU-ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTEGER (0..68719476735) </t>
   </si>
 </sst>
 </file>
@@ -561,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -710,6 +719,28 @@
         <v>68719476735</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>68719476735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13">
+        <v>68719476735</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -720,7 +751,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -810,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C8064D-1F5D-4C4A-8792-F20A50219AAE}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data_e2setup.xlsx
+++ b/data_e2setup.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN MANH DUNG\Downloads\TOOL to GEN ALL\Grok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2BC7DD-F063-4362-9F42-C81106C9A269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E126846-9F09-4274-80D4-C1022FC96002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="18060" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primitives" sheetId="1" r:id="rId1"/>
     <sheet name="Messages" sheetId="2" r:id="rId2"/>
     <sheet name="Types" sheetId="3" r:id="rId3"/>
+    <sheet name="Note" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
   <si>
     <t>Message_Name</t>
   </si>
@@ -228,6 +229,60 @@
   </si>
   <si>
     <t xml:space="preserve">INTEGER (0..68719476735) </t>
+  </si>
+  <si>
+    <t>ENB-ID-Choice</t>
+  </si>
+  <si>
+    <t>enb-ID-macro</t>
+  </si>
+  <si>
+    <t>enb-ID-shortmacro</t>
+  </si>
+  <si>
+    <t>enb-ID-longmacro</t>
+  </si>
+  <si>
+    <t>BIT STRING</t>
+  </si>
+  <si>
+    <t>E2nodeComponentConfigAddition-Item</t>
+  </si>
+  <si>
+    <t>SEQUENCE OF</t>
+  </si>
+  <si>
+    <t>E2nodeComponentConfigAddition_ItemIEs</t>
+  </si>
+  <si>
+    <t>E2nodeComponentConfigAddition_Item</t>
+  </si>
+  <si>
+    <t>e2nodeComponentInterfaceType</t>
+  </si>
+  <si>
+    <t>E2nodeComponentInterfaceType</t>
+  </si>
+  <si>
+    <t>e2nodeComponentID</t>
+  </si>
+  <si>
+    <t>E2nodeComponentID</t>
+  </si>
+  <si>
+    <t>e2nodeComponentConfiguration</t>
+  </si>
+  <si>
+    <t>E2nodeComponentConfiguration</t>
+  </si>
+  <si>
+    <t>SingleContainer</t>
+  </si>
+  <si>
+    <t>ID_id_E2nodeComponentConfigAddition_Item</t>
+  </si>
+  <si>
+    <t>e2nodeComponentConfigAddition_Item</t>
   </si>
 </sst>
 </file>
@@ -839,20 +894,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C8064D-1F5D-4C4A-8792-F20A50219AAE}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1"/>
     <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" customWidth="1"/>
     <col min="7" max="7" width="34.140625" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="25.28515625" customWidth="1"/>
@@ -1088,6 +1143,418 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCA2413-BF49-45BD-BE10-5A6576BDAC51}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="45">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="75">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="75">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="90">
+      <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_e2setup.xlsx
+++ b/data_e2setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN MANH DUNG\Downloads\TOOL to GEN ALL\Grok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E126846-9F09-4274-80D4-C1022FC96002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCEB60A-0AF2-46CD-AAD4-42757060DD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="115">
   <si>
     <t>Message_Name</t>
   </si>
@@ -283,13 +283,103 @@
   </si>
   <si>
     <t>e2nodeComponentConfigAddition_Item</t>
+  </si>
+  <si>
+    <t>E2nodeComponentConfigAddition-List</t>
+  </si>
+  <si>
+    <t>E2setupRequestIEs</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Max_Value</t>
+  </si>
+  <si>
+    <t>maxofE2nodeComponents</t>
+  </si>
+  <si>
+    <t>E2nodeComponentConfigAddition-ItemIEs</t>
+  </si>
+  <si>
+    <t>Min_Value</t>
+  </si>
+  <si>
+    <t>RANfunctions-List</t>
+  </si>
+  <si>
+    <t>RANfunction-ItemIEs</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>maxofRANfunctionID</t>
+  </si>
+  <si>
+    <t>RANfunction-Item</t>
+  </si>
+  <si>
+    <t>RANfunctionID</t>
+  </si>
+  <si>
+    <t>RANfunctionRevision</t>
+  </si>
+  <si>
+    <t>E2nodeComponentInterfaceS1</t>
+  </si>
+  <si>
+    <t>MMEname</t>
+  </si>
+  <si>
+    <t>E2nodeComponentInterfaceX2</t>
+  </si>
+  <si>
+    <t>GlobalENB-ID</t>
+  </si>
+  <si>
+    <t>GlobalenGNB-ID</t>
+  </si>
+  <si>
+    <t>ranFunctionID</t>
+  </si>
+  <si>
+    <t>ranFunctionDefinition</t>
+  </si>
+  <si>
+    <t>ranFunctionRevision</t>
+  </si>
+  <si>
+    <t>ranFunctionOID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mme-name </t>
+  </si>
+  <si>
+    <t>global-eNB-ID</t>
+  </si>
+  <si>
+    <t>global-en-gNB-ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENUMERATED {ng, xn, e1, f1, w1, s1, x2,...}</t>
+  </si>
+  <si>
+    <t>[(0, "ng", "ng"),(1, "xn", "xn"),(2, "e1", "e1"),(3, "f1", "f1"),(4, "w1", "w1"),(5, "s1", "s1"),(6, "x2", "x2")]</t>
+  </si>
+  <si>
+    <t>AMFName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrintableString (SIZE(1..150, ...)) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +399,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -625,15 +721,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
@@ -796,6 +892,25 @@
         <v>68719476735</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -803,16 +918,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BEDAAF-3274-457E-A99E-936F0BE15E0B}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
   </cols>
@@ -887,6 +1002,48 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -894,26 +1051,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C8064D-1F5D-4C4A-8792-F20A50219AAE}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -941,8 +1100,14 @@
       <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -965,11 +1130,13 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
@@ -986,11 +1153,13 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>47</v>
       </c>
@@ -1007,15 +1176,15 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1024,22 +1193,18 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1049,22 +1214,18 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1074,22 +1235,18 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1099,174 +1256,185 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="2">
-        <v>2</v>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30">
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="F16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
@@ -1279,13 +1447,15 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
@@ -1298,13 +1468,15 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
@@ -1317,22 +1489,203 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCA2413-BF49-45BD-BE10-5A6576BDAC51}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:G19"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1361,7 +1714,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1378,7 +1731,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="45">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +1756,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="75">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1428,7 +1781,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="75">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1476,7 +1829,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1505,7 +1858,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1530,7 +1883,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="90">
+    <row r="19" spans="1:9" ht="30">
       <c r="A19" s="2" t="s">
         <v>74</v>
       </c>
@@ -1554,6 +1907,392 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_e2setup.xlsx
+++ b/data_e2setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN MANH DUNG\Downloads\TOOL to GEN ALL\Grok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCEB60A-0AF2-46CD-AAD4-42757060DD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5669EF7-9801-4CB3-9007-BCFB6C7916CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3645" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primitives" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="118">
   <si>
     <t>Message_Name</t>
   </si>
@@ -373,6 +373,15 @@
   </si>
   <si>
     <t xml:space="preserve">PrintableString (SIZE(1..150, ...)) </t>
+  </si>
+  <si>
+    <t>Ext_Bit</t>
+  </si>
+  <si>
+    <t>Contain_size</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -721,22 +730,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="71.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -752,8 +762,14 @@
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -767,8 +783,11 @@
         <v>255</v>
       </c>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -782,8 +801,11 @@
         <v>255</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -797,8 +819,11 @@
         <v>65535</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -810,8 +835,11 @@
       <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -823,8 +851,11 @@
       <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="45">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -834,65 +865,101 @@
       <c r="E7" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11">
         <v>68719476735</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
         <v>68719476735</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
         <v>68719476735</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="30">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -902,13 +969,25 @@
       <c r="E14" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>113</v>
       </c>
       <c r="B15" t="s">
         <v>114</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1053,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C8064D-1F5D-4C4A-8792-F20A50219AAE}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1756,7 +1835,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="30">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1858,7 +1937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="30">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1883,7 +1962,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="45">
       <c r="A19" s="2" t="s">
         <v>74</v>
       </c>
@@ -2182,7 +2261,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="30">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -2205,7 +2284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7" ht="45">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
